--- a/data cleansing exersize.xlsx
+++ b/data cleansing exersize.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/jch233_arastudent_ac_nz1/Documents/Bachelors level 5/Database Design/Assignment1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/jch233_arastudent_ac_nz1/Documents/Bachelors level 5/Database Design/Assignment#1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{D12E05B7-CDC7-4754-8864-571A85FED692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB5C54E-C6BC-4853-8150-27E4510C0AC3}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{D12E05B7-CDC7-4754-8864-571A85FED692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BD7BED-04A5-42A3-A92F-FA16154BFFAD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2070,7 +2070,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18106,10 +18143,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22004,13 +22041,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:L101">
-    <cfRule type="containsErrors" dxfId="25" priority="1">
+    <cfRule type="containsErrors" dxfId="29" priority="1">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25889,53 +25926,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:L1">
-    <cfRule type="containsErrors" dxfId="23" priority="10">
+    <cfRule type="containsErrors" dxfId="27" priority="10">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A101">
-    <cfRule type="containsErrors" dxfId="22" priority="9">
+    <cfRule type="containsErrors" dxfId="26" priority="9">
       <formula>ISERROR(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C101">
-    <cfRule type="containsErrors" dxfId="20" priority="7">
+    <cfRule type="containsErrors" dxfId="24" priority="7">
       <formula>ISERROR(C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E101">
-    <cfRule type="containsErrors" dxfId="19" priority="6">
+    <cfRule type="containsErrors" dxfId="23" priority="6">
       <formula>ISERROR(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsErrors" dxfId="18" priority="5">
+    <cfRule type="containsErrors" dxfId="22" priority="5">
       <formula>ISERROR(F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I101">
-    <cfRule type="containsErrors" dxfId="17" priority="4">
+    <cfRule type="containsErrors" dxfId="21" priority="4">
       <formula>ISERROR(I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J101">
-    <cfRule type="containsErrors" dxfId="16" priority="3">
+    <cfRule type="containsErrors" dxfId="20" priority="3">
       <formula>ISERROR(J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K101">
-    <cfRule type="containsErrors" dxfId="15" priority="2">
+    <cfRule type="containsErrors" dxfId="19" priority="2">
       <formula>ISERROR(K2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L101">
-    <cfRule type="containsErrors" dxfId="14" priority="1">
+    <cfRule type="containsErrors" dxfId="18" priority="1">
       <formula>ISERROR(L2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32939,55 +32976,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1">
-    <cfRule type="containsErrors" dxfId="13" priority="10">
+    <cfRule type="containsErrors" dxfId="17" priority="10">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A101">
-    <cfRule type="containsErrors" dxfId="12" priority="9">
+    <cfRule type="containsErrors" dxfId="16" priority="9">
       <formula>ISERROR(A2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="containsErrors" dxfId="10" priority="7">
+    <cfRule type="containsErrors" dxfId="14" priority="7">
       <formula>ISERROR(F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K101">
-    <cfRule type="containsErrors" dxfId="9" priority="6">
+    <cfRule type="containsErrors" dxfId="13" priority="6">
       <formula>ISERROR(K2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L101">
-    <cfRule type="containsErrors" dxfId="8" priority="5">
+    <cfRule type="containsErrors" dxfId="12" priority="5">
       <formula>ISERROR(L2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S101">
-    <cfRule type="containsErrors" dxfId="7" priority="4">
+    <cfRule type="containsErrors" dxfId="11" priority="4">
       <formula>ISERROR(S2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T101">
-    <cfRule type="containsErrors" dxfId="6" priority="3">
+    <cfRule type="containsErrors" dxfId="10" priority="3">
       <formula>ISERROR(T2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U101">
-    <cfRule type="containsErrors" dxfId="5" priority="2">
+    <cfRule type="containsErrors" dxfId="9" priority="2">
       <formula>ISERROR(U2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V101">
-    <cfRule type="containsErrors" dxfId="4" priority="1">
+    <cfRule type="containsErrors" dxfId="8" priority="1">
       <formula>ISERROR(V2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32997,8 +33034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57912B61-7910-4791-82BD-82D1A3DCAB02}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37483,15 +37520,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:O1 A2:A95 D2:D95 G2:H95 L2:O95">
-    <cfRule type="containsErrors" dxfId="2" priority="10">
+    <cfRule type="containsErrors" dxfId="6" priority="11">
       <formula>ISERROR(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D95">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
